--- a/medicine/Enfance/Claude_Lapointe/Claude_Lapointe.xlsx
+++ b/medicine/Enfance/Claude_Lapointe/Claude_Lapointe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Claude Lapointe, né le 3 décembre 1938 à Rémilly (Moselle), est un illustrateur et un enseignant français, fondateur de l'atelier d'illustration à l'École supérieure des arts décoratifs de Strasbourg.
 </t>
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Claude Lapointe fait ses études  au lycée de Metz[1] puis à l'école des Beaux-Arts de Nancy en 1962 - 1963 avant d'intégrer l'École supérieure des arts décoratifs de Strasbourg, où il reste de 1963 à 1965[2].
-Il devient en 1967 enseignant à l'école des arts décoratifs de Strasbourg[1]. En 1972[2], 1973[1] ou 1974, il est le fondateur de l'atelier d'illustration de cette école[3] et le formateur de toute une génération d'illustrateurs français, comme Béhé[4], Laurent Hirn[5], Jean-François Kieffer[6], Nadine Brass[7], Étienne Jung[8], Jérôme Jouvray[9], Blutch[10]... L'atelier contribue à la réputation des arts déco de Strasbourg : « relancé en 1972 par Claude Lapointe, l'endroit s'est forgé une réputation d'excellence qui attire des étudiants de toute la France »[11].
-En 1971 paraît le premier livre illustré de Claude Lapointe : Pierre l'ébouriffé[1]. Il collabore avec Bayard presse dans les revues Okapi dans les années 1970-1980 ainsi que Phosphore, J'aime lire[1], etc. On lui doit aussi l'illustration des tout premiers romans publiés par Gallimard en poche pour la jeunesse dans la collection « Folio junior », notamment Grabuge et l'indomptable Amélie et La Guerre des boutons. Il a également donné une figure de gamin gouailleur au célèbre Tom Sawyer et à son acolyte Huckleberry Finn.[réf. souhaitée]
-Au cours de sa carrière, il a signé les illustrations dans plus d'une centaine d'ouvrages jeunesse[1].
-En 1982, il est lauréat du Premio Grafico Fiera di Bologna per l'Infanzia, de la Foire du livre de jeunesse de Bologne[12] (Italie) pour sa série d'ouvrages de la collection « Les secrets de l'image », éditée par Gallimard. En 1996, le salon du livre de Bordeaux organise l'exposition Mettre en scène une feuille blanche « consacrée au travail de Claude Lapointe, l'un des principaux acteurs du renouveau de l'illustration française dans les années 70 »[13].
-En 2016, l'association des artistes indépendants d'Alsace (AIDA) organise une exposition présentant les travaux de Lapointe à la Maison des Arts de Strasbourg : Personnages en quête d'histoire[14].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Claude Lapointe fait ses études  au lycée de Metz puis à l'école des Beaux-Arts de Nancy en 1962 - 1963 avant d'intégrer l'École supérieure des arts décoratifs de Strasbourg, où il reste de 1963 à 1965.
+Il devient en 1967 enseignant à l'école des arts décoratifs de Strasbourg. En 1972, 1973 ou 1974, il est le fondateur de l'atelier d'illustration de cette école et le formateur de toute une génération d'illustrateurs français, comme Béhé, Laurent Hirn, Jean-François Kieffer, Nadine Brass, Étienne Jung, Jérôme Jouvray, Blutch... L'atelier contribue à la réputation des arts déco de Strasbourg : « relancé en 1972 par Claude Lapointe, l'endroit s'est forgé une réputation d'excellence qui attire des étudiants de toute la France ».
+En 1971 paraît le premier livre illustré de Claude Lapointe : Pierre l'ébouriffé. Il collabore avec Bayard presse dans les revues Okapi dans les années 1970-1980 ainsi que Phosphore, J'aime lire, etc. On lui doit aussi l'illustration des tout premiers romans publiés par Gallimard en poche pour la jeunesse dans la collection « Folio junior », notamment Grabuge et l'indomptable Amélie et La Guerre des boutons. Il a également donné une figure de gamin gouailleur au célèbre Tom Sawyer et à son acolyte Huckleberry Finn.[réf. souhaitée]
+Au cours de sa carrière, il a signé les illustrations dans plus d'une centaine d'ouvrages jeunesse.
+En 1982, il est lauréat du Premio Grafico Fiera di Bologna per l'Infanzia, de la Foire du livre de jeunesse de Bologne (Italie) pour sa série d'ouvrages de la collection « Les secrets de l'image », éditée par Gallimard. En 1996, le salon du livre de Bordeaux organise l'exposition Mettre en scène une feuille blanche « consacrée au travail de Claude Lapointe, l'un des principaux acteurs du renouveau de l'illustration française dans les années 70 ».
+En 2016, l'association des artistes indépendants d'Alsace (AIDA) organise une exposition présentant les travaux de Lapointe à la Maison des Arts de Strasbourg : Personnages en quête d'histoire.
 </t>
         </is>
       </c>
@@ -547,14 +561,16 @@
           <t>Quelques ouvrages illustrés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le plus beau chien du monde, texte de Jo Hoestlandt, ill. de Claude Lapointe, Pocket jeunesse, 2001
 Grasset Jeunesse
-Contes de la rue Broca, de Pierre Gripari ; intégrale en 2012 chez Grasset[15].
+Contes de la rue Broca, de Pierre Gripari ; intégrale en 2012 chez Grasset.
 Contes de la Folie Méricourt de Pierre Gripari
 Les Contes d'ailleurs et de nulle part, de Pierre Gripari
-Les Contes d'ailleurs et d'autre part[16], de Pierre Gripari
+Les Contes d'ailleurs et d'autre part, de Pierre Gripari
 Et la belette joue de la trompette de Jean-Claude Darnal (1975)
 Histoire du prince Pipo de Pierre Gripari, mise en pages de Claude Lapointe, illustrations de Claude Lapointe, Gérard Brun, Robert Constantin, Alain Gauthier, Bernard Girodroux, Gérard Hauducœur, René Hausman, Alain Letort, Jean-Claude Marol, Tito Topin, Michel Trichet, Dominique Boberlé, Philippe Delangle, Philippe Poirier (1976)
 Gallimard Jeunesse
@@ -590,16 +606,14 @@
 La Martinière jeunesse
 Treize contes sauvages pour Monsieur Crusoé, texte de Henriette Bichonnier, La Martinière jeunesse, 2000
 Calligrames
-La série Oscar de Catherine de Lasa[17],[18]
+La série Oscar de Catherine de Lasa,
 Circonflexe
 Le monde des maisons, de Denys Prache, Éditions Circonflexe, 2007
 Verger éditeur
 Grand-Papy malgré lui, texte de Stéphane Dangel, illustrations de Claude Lapointe
 Les états d'âme de Chipie, chienne de compagnie
 Le Rocher (collection Lo pais d'enfance)
-Le Chat qui voulait vider la rivière, texte de Marie-Christine Combes-Blanc.
-Essai
-Denise Dupont-Escarpit et Claude Lapointe, Guide des illustrateurs du livre de jeunesse français ,Éd. du Cercle de la librairie, 1988</t>
+Le Chat qui voulait vider la rivière, texte de Marie-Christine Combes-Blanc.</t>
         </is>
       </c>
     </row>
@@ -624,13 +638,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Filmographie</t>
+          <t>Quelques ouvrages illustrés</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">En 2006, il participe par ses illustrations au film d'animation d'Alain Jaspard Le Proverbe[19].
-</t>
+          <t>Essai</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Denise Dupont-Escarpit et Claude Lapointe, Guide des illustrateurs du livre de jeunesse français ,Éd. du Cercle de la librairie, 1988</t>
         </is>
       </c>
     </row>
@@ -655,14 +674,49 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2006, il participe par ses illustrations au film d'animation d'Alain Jaspard Le Proverbe.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Claude_Lapointe</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claude_Lapointe</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1982 : Grand Prix Graphique, Foire du livre de jeunesse de Bologne[2], pour sa série d'ouvrages de la collection « Les secrets de l'image », éditée par Gallimard.
-1982 : (international) « Honour List »[20] de l' IBBY, catégorie Illustration, pour Les aventures de Tom Sawyer (texte de Mark Twain)
-1983 : Prix de la Fondation de France[2].</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1982 : Grand Prix Graphique, Foire du livre de jeunesse de Bologne, pour sa série d'ouvrages de la collection « Les secrets de l'image », éditée par Gallimard.
+1982 : (international) « Honour List » de l' IBBY, catégorie Illustration, pour Les aventures de Tom Sawyer (texte de Mark Twain)
+1983 : Prix de la Fondation de France.</t>
         </is>
       </c>
     </row>
